--- a/高发年龄段统计.xlsx
+++ b/高发年龄段统计.xlsx
@@ -112,7 +112,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>人数</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -131,121 +131,214 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="35">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="52">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="67">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="68">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>48</c:v>
+                <c:pt idx="69">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -257,28 +350,214 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,7 +964,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -698,16 +977,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -715,210 +994,551 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>57</v>
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+      <c r="B29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
+      <c r="B33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>66</v>
+      </c>
+      <c r="B34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>54</v>
+      </c>
+      <c r="B35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>57</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>49</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>70</v>
+      </c>
+      <c r="B40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>59</v>
+      </c>
+      <c r="B41">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>63</v>
+      </c>
+      <c r="B42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>65</v>
+      </c>
+      <c r="B43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>60</v>
+      </c>
+      <c r="B45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>68</v>
+      </c>
+      <c r="B52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
+      <c r="B53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>43</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>44</v>
+      </c>
+      <c r="B55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>67</v>
+      </c>
+      <c r="B57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>71</v>
+      </c>
+      <c r="B59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>16</v>
+      </c>
+      <c r="B60">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>53</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>46</v>
+      </c>
+      <c r="B63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>72</v>
+      </c>
+      <c r="B64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>58</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>17</v>
+      </c>
+      <c r="B69">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
+    <row r="70" spans="1:2">
+      <c r="A70">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
-        <v>48</v>
+      <c r="B70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>15</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
